--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/15 Prueba de Pagos Posteriores.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/15 Prueba de Pagos Posteriores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9580C2E-2C18-4738-9D49-7DFA2B19DE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -23,12 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -69,12 +64,6 @@
     <t xml:space="preserve">Total </t>
   </si>
   <si>
-    <t xml:space="preserve">    Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
     <t xml:space="preserve">DOCUMENTO </t>
   </si>
   <si>
@@ -90,21 +79,27 @@
     <t xml:space="preserve">Reviso: </t>
   </si>
   <si>
-    <t xml:space="preserve">           Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>Fecha año /2024</t>
   </si>
   <si>
     <t>H-14</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 20244</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -298,13 +293,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -322,9 +317,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,10 +333,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -360,13 +352,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -698,11 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E11" sqref="E11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,9 +714,9 @@
   <sheetData>
     <row r="3" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
-      <c r="J3" s="19"/>
-      <c r="L3" s="26" t="s">
-        <v>20</v>
+      <c r="J3" s="18"/>
+      <c r="L3" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
@@ -727,54 +725,63 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="14"/>
-      <c r="K5" s="15" t="s">
+      <c r="H5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="K8" s="15" t="s">
+      <c r="E8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="K8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="E9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -784,33 +791,33 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -819,10 +826,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -830,10 +837,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -841,10 +848,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -852,10 +859,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -863,10 +870,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -874,10 +881,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -885,10 +892,10 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -896,10 +903,10 @@
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -907,10 +914,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -918,10 +925,10 @@
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -929,10 +936,10 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -940,10 +947,10 @@
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -951,10 +958,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -962,10 +969,10 @@
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -973,10 +980,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -984,10 +991,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -995,10 +1002,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1006,10 +1013,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1017,10 +1024,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -1028,10 +1035,10 @@
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -1039,10 +1046,10 @@
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,58 +1059,44 @@
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="21"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>15</v>
+      <c r="B39" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
       <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="B13:J14">
+  <autoFilter ref="B13:J14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
-  <mergeCells count="25">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
+  <mergeCells count="29">
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -1111,6 +1104,24 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>

--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/15 Prueba de Pagos Posteriores.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/15 Prueba de Pagos Posteriores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9580C2E-2C18-4738-9D49-7DFA2B19DE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DAD147-D153-44B5-B335-8E98D5E9DA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>Auditoria Financiera</t>
   </si>
   <si>
-    <t>Del 01 de Enero al 31 de Diciembre de 20244</t>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -352,19 +352,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +700,7 @@
   <dimension ref="B3:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:H11"/>
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,53 +744,53 @@
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="K8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
     </row>
@@ -807,10 +807,10 @@
       <c r="E14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="23" t="s">
         <v>16</v>
       </c>
@@ -826,8 +826,8 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="2"/>
       <c r="I15" s="19"/>
       <c r="J15" s="6"/>
@@ -837,8 +837,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="2"/>
       <c r="I16" s="19"/>
       <c r="J16" s="6"/>
@@ -848,8 +848,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="2"/>
       <c r="I17" s="19"/>
       <c r="J17" s="6"/>
@@ -859,8 +859,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="2"/>
       <c r="I18" s="19"/>
       <c r="J18" s="6"/>
@@ -870,8 +870,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="2"/>
       <c r="I19" s="19"/>
       <c r="J19" s="6"/>
@@ -881,8 +881,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="2"/>
       <c r="I20" s="19"/>
       <c r="J20" s="6"/>
@@ -892,8 +892,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="2"/>
       <c r="I21" s="19"/>
       <c r="J21" s="6"/>
@@ -903,8 +903,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="2"/>
       <c r="I22" s="19"/>
       <c r="J22" s="6"/>
@@ -914,8 +914,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="2"/>
       <c r="I23" s="19"/>
       <c r="J23" s="6"/>
@@ -925,8 +925,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="2"/>
       <c r="I24" s="19"/>
       <c r="J24" s="6"/>
@@ -936,8 +936,8 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="2"/>
       <c r="I25" s="19"/>
       <c r="J25" s="6"/>
@@ -947,8 +947,8 @@
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="2"/>
       <c r="I26" s="19"/>
       <c r="J26" s="6"/>
@@ -958,8 +958,8 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="2"/>
       <c r="I27" s="19"/>
       <c r="J27" s="6"/>
@@ -969,8 +969,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="2"/>
       <c r="I28" s="19"/>
       <c r="J28" s="6"/>
@@ -980,8 +980,8 @@
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="2"/>
       <c r="I29" s="19"/>
       <c r="J29" s="6"/>
@@ -991,8 +991,8 @@
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="2"/>
       <c r="I30" s="19"/>
       <c r="J30" s="6"/>
@@ -1002,8 +1002,8 @@
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="2"/>
       <c r="I31" s="19"/>
       <c r="J31" s="6"/>
@@ -1013,8 +1013,8 @@
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="2"/>
       <c r="I32" s="19"/>
       <c r="J32" s="6"/>
@@ -1024,8 +1024,8 @@
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="2"/>
       <c r="I33" s="19"/>
       <c r="J33" s="6"/>
@@ -1035,8 +1035,8 @@
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="2"/>
       <c r="I34" s="19"/>
       <c r="J34" s="6"/>
@@ -1046,8 +1046,8 @@
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="2"/>
       <c r="I35" s="19"/>
       <c r="J35" s="6"/>
@@ -1059,8 +1059,8 @@
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="8"/>
       <c r="I36" s="20"/>
       <c r="J36" s="6"/>
@@ -1093,35 +1093,35 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
